--- a/辞書メモ/Log.xlsx
+++ b/辞書メモ/Log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>番号</t>
   </si>
@@ -1817,6 +1817,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>油断 
 [ゆだん] [yudann] ◎ 
 【自动词・サ变/三类】
@@ -1846,6 +1853,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>台 
 [だい] [dai] ① 
 【名词】
@@ -1871,16 +1885,109 @@
       <t>大致的数量范围。（年齢または物の値段などのそれを単位に区切れる範囲を示す語。）</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>円滑 
+[えんかつ] [ennkatsu] ◎ 
+【名・形容动词/ナ形容词】
+1.圆滑，圆满，</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，协调。
+物事が故障なくすらすらといくこと。なめらかで，かどだたないこと。
+顺利。圆全。圆满。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>仕事は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>円滑に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>運んでいる。 
+工作在顺利进展。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>失う 
+[うしなう] [ushinau] ◎ 
+【他动词・五段/一类】
+1.失常；失去正常状态。
+2.迷失。
+3.丧；亡。
+4.错过；逸失。
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丢失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；失落；丧失；失去。</t>
+    </r>
+  </si>
+  <si>
+    <t>データを失われる。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1898,24 +2005,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1928,30 +2033,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1988,9 +2072,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2012,14 +2095,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -2029,14 +2104,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2115,49 +2222,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2169,103 +2246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2283,7 +2264,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2295,7 +2396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2544,39 +2651,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2607,11 +2681,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2636,10 +2743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2648,137 +2755,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2836,6 +2943,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3159,7 +3269,7 @@
   <dimension ref="B1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
@@ -3476,21 +3586,29 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" ht="61.95" spans="2:4">
       <c r="B36" s="15">
         <v>32</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" ht="14.55" spans="2:4">
+      <c r="C36" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" ht="82.35" spans="2:4">
       <c r="B37" s="15">
         <v>33</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" ht="14.55" spans="2:4">
+      <c r="C37" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
       <c r="B38" s="15">
         <v>34</v>
       </c>
